--- a/data/trans_bre/LAWTONB_2R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_2R2-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 12,5</t>
+          <t>1,06; 12,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 16,0</t>
+          <t>3,68; 15,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 17,68</t>
+          <t>4,82; 17,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,46; 20,7</t>
+          <t>9,6; 20,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 50,21</t>
+          <t>2,72; 50,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,72; 60,75</t>
+          <t>10,61; 58,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,92; 74,28</t>
+          <t>16,28; 75,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,2; 60,21</t>
+          <t>22,85; 61,91</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 18,56</t>
+          <t>-7,6; 20,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 21,03</t>
+          <t>-3,76; 20,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,32; 26,13</t>
+          <t>9,06; 26,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 9,05</t>
+          <t>-13,51; 8,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,54; 155,33</t>
+          <t>-43,32; 170,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 169,39</t>
+          <t>-19,29; 163,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,89; 292,87</t>
+          <t>56,4; 287,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-74,64; 59,55</t>
+          <t>-72,98; 56,9</t>
         </is>
       </c>
     </row>
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 39,96</t>
+          <t>-9,97; 40,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 35,83</t>
+          <t>-6,69; 36,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 35,09</t>
+          <t>-6,03; 34,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 15,24</t>
+          <t>-2,69; 14,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,27; 258,89</t>
+          <t>-29,48; 267,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-51,72; 678,54</t>
+          <t>-45,8; 644,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 136,36</t>
+          <t>-14,54; 139,97</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 13,26</t>
+          <t>2,83; 13,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 16,77</t>
+          <t>6,2; 17,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,93; 19,55</t>
+          <t>9,53; 19,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 17,3</t>
+          <t>-7,3; 17,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 54,86</t>
+          <t>9,68; 57,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,9; 72,33</t>
+          <t>20,39; 74,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,16; 105,32</t>
+          <t>41,41; 105,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,96; 70,33</t>
+          <t>-27,39; 71,55</t>
         </is>
       </c>
     </row>
